--- a/data/fitness.xlsx
+++ b/data/fitness.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcsuh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcsuh/Documents/GitHub/temp_rsc_zoops/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2A9649-F731-4343-AF31-2CA28365430B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119DC965-C651-ED48-82EE-1BE2BBE02690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{1E5D65AC-C145-864A-B84C-582E3708872F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE22745-C994-8641-A705-36D6A8B39997}">
-  <dimension ref="A1:D349"/>
+  <dimension ref="A1:D358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D349"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="D371" sqref="D371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3659,16 +3659,16 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C231" s="1">
-        <v>44500</v>
+        <v>44515</v>
       </c>
       <c r="D231" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -3676,13 +3676,13 @@
         <v>11</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" s="1">
         <v>44500</v>
       </c>
       <c r="D232" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -3690,13 +3690,13 @@
         <v>11</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" s="1">
         <v>44500</v>
       </c>
       <c r="D233" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -3704,13 +3704,13 @@
         <v>11</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234" s="1">
         <v>44500</v>
       </c>
       <c r="D234" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -3718,7 +3718,7 @@
         <v>11</v>
       </c>
       <c r="B235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C235" s="1">
         <v>44500</v>
@@ -3732,13 +3732,13 @@
         <v>11</v>
       </c>
       <c r="B236">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" s="1">
         <v>44500</v>
       </c>
       <c r="D236" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -3746,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="B237">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" s="1">
         <v>44500</v>
@@ -3760,13 +3760,13 @@
         <v>11</v>
       </c>
       <c r="B238">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" s="1">
         <v>44500</v>
       </c>
       <c r="D238" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -3774,13 +3774,13 @@
         <v>11</v>
       </c>
       <c r="B239">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C239" s="1">
         <v>44500</v>
       </c>
       <c r="D239" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -3788,13 +3788,13 @@
         <v>11</v>
       </c>
       <c r="B240">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C240" s="1">
         <v>44500</v>
       </c>
       <c r="D240" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -3802,13 +3802,13 @@
         <v>11</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C241" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D241" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -3816,13 +3816,13 @@
         <v>11</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C242" s="1">
         <v>44503</v>
       </c>
       <c r="D242" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -3830,13 +3830,13 @@
         <v>11</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C243" s="1">
         <v>44503</v>
       </c>
       <c r="D243" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -3844,13 +3844,13 @@
         <v>11</v>
       </c>
       <c r="B244">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C244" s="1">
         <v>44503</v>
       </c>
       <c r="D244" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -3858,13 +3858,13 @@
         <v>11</v>
       </c>
       <c r="B245">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C245" s="1">
         <v>44503</v>
       </c>
       <c r="D245" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -3872,7 +3872,7 @@
         <v>11</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" s="1">
         <v>44503</v>
@@ -3886,13 +3886,13 @@
         <v>11</v>
       </c>
       <c r="B247">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" s="1">
         <v>44503</v>
       </c>
       <c r="D247" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
         <v>11</v>
       </c>
       <c r="B248">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" s="1">
         <v>44503</v>
@@ -3914,13 +3914,13 @@
         <v>11</v>
       </c>
       <c r="B249">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C249" s="1">
         <v>44503</v>
       </c>
       <c r="D249" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -3928,13 +3928,13 @@
         <v>11</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C250" s="1">
         <v>44503</v>
       </c>
       <c r="D250" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -3942,13 +3942,13 @@
         <v>11</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C251" s="1">
-        <v>44507</v>
+        <v>44503</v>
       </c>
       <c r="D251" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -3956,13 +3956,13 @@
         <v>11</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C252" s="1">
         <v>44507</v>
       </c>
       <c r="D252" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -3970,13 +3970,13 @@
         <v>11</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253" s="1">
         <v>44507</v>
       </c>
       <c r="D253" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -3984,13 +3984,13 @@
         <v>11</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C254" s="1">
         <v>44507</v>
       </c>
       <c r="D254" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -3998,13 +3998,13 @@
         <v>11</v>
       </c>
       <c r="B255">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255" s="1">
         <v>44507</v>
       </c>
       <c r="D255" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -4012,13 +4012,13 @@
         <v>11</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" s="1">
         <v>44507</v>
       </c>
       <c r="D256" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -4026,13 +4026,13 @@
         <v>11</v>
       </c>
       <c r="B257">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" s="1">
         <v>44507</v>
       </c>
       <c r="D257" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -4040,13 +4040,13 @@
         <v>11</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C258" s="1">
         <v>44507</v>
       </c>
       <c r="D258" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -4054,13 +4054,13 @@
         <v>11</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C259" s="1">
-        <v>44510</v>
+        <v>44507</v>
       </c>
       <c r="D259" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -4068,13 +4068,13 @@
         <v>11</v>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C260" s="1">
         <v>44510</v>
       </c>
       <c r="D260" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -4082,13 +4082,13 @@
         <v>11</v>
       </c>
       <c r="B261">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261" s="1">
         <v>44510</v>
       </c>
       <c r="D261" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -4096,13 +4096,13 @@
         <v>11</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C262" s="1">
         <v>44510</v>
       </c>
       <c r="D262" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -4110,13 +4110,13 @@
         <v>11</v>
       </c>
       <c r="B263">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C263" s="1">
         <v>44510</v>
       </c>
       <c r="D263" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -4124,13 +4124,13 @@
         <v>11</v>
       </c>
       <c r="B264">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C264" s="1">
         <v>44510</v>
       </c>
       <c r="D264" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -4138,13 +4138,13 @@
         <v>11</v>
       </c>
       <c r="B265">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C265" s="1">
         <v>44510</v>
       </c>
       <c r="D265" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -4152,13 +4152,13 @@
         <v>11</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C266" s="1">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="D266" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -4166,10 +4166,10 @@
         <v>11</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C267" s="1">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="D267" s="2">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>11</v>
       </c>
       <c r="B268">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C268" s="1">
         <v>44512</v>
       </c>
       <c r="D268" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -4194,13 +4194,13 @@
         <v>11</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C269" s="1">
-        <v>44514</v>
+        <v>44512</v>
       </c>
       <c r="D269" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -4208,13 +4208,13 @@
         <v>11</v>
       </c>
       <c r="B270">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C270" s="1">
         <v>44514</v>
       </c>
       <c r="D270" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -4222,83 +4222,83 @@
         <v>11</v>
       </c>
       <c r="B271">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C271" s="1">
         <v>44514</v>
       </c>
       <c r="D271" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C272" s="1">
-        <v>44496</v>
+        <v>44514</v>
       </c>
       <c r="D272" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C273" s="1">
-        <v>44496</v>
+        <v>44517</v>
       </c>
       <c r="D273" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C274" s="1">
-        <v>44496</v>
+        <v>44517</v>
       </c>
       <c r="D274" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B275">
         <v>4</v>
       </c>
       <c r="C275" s="1">
-        <v>44496</v>
+        <v>44521</v>
       </c>
       <c r="D275" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B276">
         <v>5</v>
       </c>
       <c r="C276" s="1">
-        <v>44496</v>
+        <v>44521</v>
       </c>
       <c r="D276" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -4306,13 +4306,13 @@
         <v>12</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C277" s="1">
         <v>44496</v>
       </c>
       <c r="D277" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -4320,7 +4320,7 @@
         <v>12</v>
       </c>
       <c r="B278">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C278" s="1">
         <v>44496</v>
@@ -4334,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="B279">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C279" s="1">
         <v>44496</v>
@@ -4348,13 +4348,13 @@
         <v>12</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C280" s="1">
         <v>44496</v>
       </c>
       <c r="D280" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -4362,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="B281">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C281" s="1">
         <v>44496</v>
@@ -4376,13 +4376,13 @@
         <v>12</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C282" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D282" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -4390,13 +4390,13 @@
         <v>12</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C283" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D283" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -4404,13 +4404,13 @@
         <v>12</v>
       </c>
       <c r="B284">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C284" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D284" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -4418,13 +4418,13 @@
         <v>12</v>
       </c>
       <c r="B285">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C285" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D285" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -4432,13 +4432,13 @@
         <v>12</v>
       </c>
       <c r="B286">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C286" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D286" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -4446,13 +4446,13 @@
         <v>12</v>
       </c>
       <c r="B287">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C287" s="1">
         <v>44500</v>
       </c>
       <c r="D287" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -4460,13 +4460,13 @@
         <v>12</v>
       </c>
       <c r="B288">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C288" s="1">
         <v>44500</v>
       </c>
       <c r="D288" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,7 +4474,7 @@
         <v>12</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C289" s="1">
         <v>44500</v>
@@ -4488,13 +4488,13 @@
         <v>12</v>
       </c>
       <c r="B290">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C290" s="1">
         <v>44500</v>
       </c>
       <c r="D290" s="2">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -4502,13 +4502,13 @@
         <v>12</v>
       </c>
       <c r="B291">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C291" s="1">
         <v>44500</v>
       </c>
       <c r="D291" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -4516,13 +4516,13 @@
         <v>12</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C292" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D292" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -4530,13 +4530,13 @@
         <v>12</v>
       </c>
       <c r="B293">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C293" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D293" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -4544,13 +4544,13 @@
         <v>12</v>
       </c>
       <c r="B294">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C294" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D294" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -4558,13 +4558,13 @@
         <v>12</v>
       </c>
       <c r="B295">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C295" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D295" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -4572,13 +4572,13 @@
         <v>12</v>
       </c>
       <c r="B296">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C296" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D296" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -4586,13 +4586,13 @@
         <v>12</v>
       </c>
       <c r="B297">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C297" s="1">
         <v>44503</v>
       </c>
       <c r="D297" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -4600,13 +4600,13 @@
         <v>12</v>
       </c>
       <c r="B298">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C298" s="1">
         <v>44503</v>
       </c>
       <c r="D298" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -4614,13 +4614,13 @@
         <v>12</v>
       </c>
       <c r="B299">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C299" s="1">
         <v>44503</v>
       </c>
       <c r="D299" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -4628,13 +4628,13 @@
         <v>12</v>
       </c>
       <c r="B300">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C300" s="1">
         <v>44503</v>
       </c>
       <c r="D300" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -4642,13 +4642,13 @@
         <v>12</v>
       </c>
       <c r="B301">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C301" s="1">
-        <v>44504</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>5</v>
+        <v>44503</v>
+      </c>
+      <c r="D301" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -4656,13 +4656,13 @@
         <v>12</v>
       </c>
       <c r="B302">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C302" s="1">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="D302" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -4670,13 +4670,13 @@
         <v>12</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C303" s="1">
-        <v>44507</v>
+        <v>44503</v>
       </c>
       <c r="D303" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -4684,13 +4684,13 @@
         <v>12</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C304" s="1">
-        <v>44507</v>
+        <v>44503</v>
       </c>
       <c r="D304" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -4698,13 +4698,13 @@
         <v>12</v>
       </c>
       <c r="B305">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C305" s="1">
-        <v>44507</v>
+        <v>44503</v>
       </c>
       <c r="D305" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -4712,13 +4712,13 @@
         <v>12</v>
       </c>
       <c r="B306">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C306" s="1">
-        <v>44507</v>
-      </c>
-      <c r="D306" s="2">
-        <v>3</v>
+        <v>44504</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -4726,13 +4726,13 @@
         <v>12</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C307" s="1">
-        <v>44510</v>
+        <v>44504</v>
       </c>
       <c r="D307" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -4743,77 +4743,77 @@
         <v>1</v>
       </c>
       <c r="C308" s="1">
-        <v>44514</v>
+        <v>44507</v>
       </c>
       <c r="D308" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C309" s="1">
-        <v>44496</v>
+        <v>44507</v>
       </c>
       <c r="D309" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B310">
+        <v>5</v>
+      </c>
+      <c r="C310" s="1">
+        <v>44507</v>
+      </c>
+      <c r="D310" s="2">
         <v>2</v>
-      </c>
-      <c r="C310" s="1">
-        <v>44496</v>
-      </c>
-      <c r="D310" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C311" s="1">
-        <v>44496</v>
+        <v>44507</v>
       </c>
       <c r="D311" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C312" s="1">
-        <v>44496</v>
+        <v>44510</v>
       </c>
       <c r="D312" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B313">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C313" s="1">
-        <v>44496</v>
+        <v>44514</v>
       </c>
       <c r="D313" s="2">
         <v>0</v>
@@ -4821,30 +4821,30 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>12</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314" s="1">
+        <v>44517</v>
+      </c>
+      <c r="D314" s="2">
         <v>13</v>
-      </c>
-      <c r="B314">
-        <v>6</v>
-      </c>
-      <c r="C314" s="1">
-        <v>44496</v>
-      </c>
-      <c r="D314" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B315">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C315" s="1">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="D315" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -4852,13 +4852,13 @@
         <v>13</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C316" s="1">
         <v>44496</v>
       </c>
       <c r="D316" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -4866,13 +4866,13 @@
         <v>13</v>
       </c>
       <c r="B317">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C317" s="1">
         <v>44496</v>
       </c>
       <c r="D317" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -4880,13 +4880,13 @@
         <v>13</v>
       </c>
       <c r="B318">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C318" s="1">
         <v>44496</v>
       </c>
       <c r="D318" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -4894,13 +4894,13 @@
         <v>13</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C319" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D319" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -4908,13 +4908,13 @@
         <v>13</v>
       </c>
       <c r="B320">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C320" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D320" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -4922,13 +4922,13 @@
         <v>13</v>
       </c>
       <c r="B321">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C321" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D321" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -4936,13 +4936,13 @@
         <v>13</v>
       </c>
       <c r="B322">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C322" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D322" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -4950,13 +4950,13 @@
         <v>13</v>
       </c>
       <c r="B323">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C323" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D323" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -4964,13 +4964,13 @@
         <v>13</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C324" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D324" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -4978,13 +4978,13 @@
         <v>13</v>
       </c>
       <c r="B325">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C325" s="1">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="D325" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -4992,13 +4992,13 @@
         <v>13</v>
       </c>
       <c r="B326">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C326" s="1">
         <v>44500</v>
       </c>
       <c r="D326" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -5006,13 +5006,13 @@
         <v>13</v>
       </c>
       <c r="B327">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C327" s="1">
         <v>44500</v>
       </c>
       <c r="D327" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -5020,13 +5020,13 @@
         <v>13</v>
       </c>
       <c r="B328">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C328" s="1">
         <v>44500</v>
       </c>
       <c r="D328" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -5034,13 +5034,13 @@
         <v>13</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C329" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D329" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -5048,13 +5048,13 @@
         <v>13</v>
       </c>
       <c r="B330">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C330" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D330" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -5062,13 +5062,13 @@
         <v>13</v>
       </c>
       <c r="B331">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C331" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D331" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -5076,13 +5076,13 @@
         <v>13</v>
       </c>
       <c r="B332">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C332" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D332" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -5090,13 +5090,13 @@
         <v>13</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C333" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D333" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -5104,13 +5104,13 @@
         <v>13</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C334" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D334" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -5118,13 +5118,13 @@
         <v>13</v>
       </c>
       <c r="B335">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C335" s="1">
-        <v>44503</v>
+        <v>44500</v>
       </c>
       <c r="D335" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -5132,13 +5132,13 @@
         <v>13</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C336" s="1">
         <v>44503</v>
       </c>
       <c r="D336" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -5146,13 +5146,13 @@
         <v>13</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C337" s="1">
         <v>44503</v>
       </c>
       <c r="D337" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -5160,13 +5160,13 @@
         <v>13</v>
       </c>
       <c r="B338">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C338" s="1">
         <v>44503</v>
       </c>
       <c r="D338" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -5174,13 +5174,13 @@
         <v>13</v>
       </c>
       <c r="B339">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C339" s="1">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="D339" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -5188,13 +5188,13 @@
         <v>13</v>
       </c>
       <c r="B340">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C340" s="1">
-        <v>44505</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>5</v>
+        <v>44503</v>
+      </c>
+      <c r="D340" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -5205,10 +5205,10 @@
         <v>6</v>
       </c>
       <c r="C341" s="1">
-        <v>44505</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>5</v>
+        <v>44503</v>
+      </c>
+      <c r="D341" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -5219,10 +5219,10 @@
         <v>7</v>
       </c>
       <c r="C342" s="1">
-        <v>44505</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>5</v>
+        <v>44503</v>
+      </c>
+      <c r="D342" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -5230,13 +5230,13 @@
         <v>13</v>
       </c>
       <c r="B343">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C343" s="1">
-        <v>44505</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>5</v>
+        <v>44503</v>
+      </c>
+      <c r="D343" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -5244,13 +5244,13 @@
         <v>13</v>
       </c>
       <c r="B344">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C344" s="1">
-        <v>44507</v>
+        <v>44503</v>
       </c>
       <c r="D344" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -5258,13 +5258,13 @@
         <v>13</v>
       </c>
       <c r="B345">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C345" s="1">
-        <v>44507</v>
+        <v>44503</v>
       </c>
       <c r="D345" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -5272,10 +5272,10 @@
         <v>13</v>
       </c>
       <c r="B346">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C346" s="1">
-        <v>44507</v>
+        <v>44504</v>
       </c>
       <c r="D346" s="2">
         <v>3</v>
@@ -5286,13 +5286,13 @@
         <v>13</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C347" s="1">
-        <v>44509</v>
-      </c>
-      <c r="D347" s="2">
-        <v>0</v>
+        <v>44505</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -5300,13 +5300,13 @@
         <v>13</v>
       </c>
       <c r="B348">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C348" s="1">
-        <v>44510</v>
-      </c>
-      <c r="D348" s="2">
-        <v>0</v>
+        <v>44505</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -5314,13 +5314,139 @@
         <v>13</v>
       </c>
       <c r="B349">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C349" s="1">
+        <v>44505</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350">
+        <v>10</v>
+      </c>
+      <c r="C350" s="1">
+        <v>44505</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351" s="1">
+        <v>44507</v>
+      </c>
+      <c r="D351" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>13</v>
+      </c>
+      <c r="B352">
+        <v>8</v>
+      </c>
+      <c r="C352" s="1">
+        <v>44507</v>
+      </c>
+      <c r="D352" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>13</v>
+      </c>
+      <c r="B353">
+        <v>9</v>
+      </c>
+      <c r="C353" s="1">
+        <v>44507</v>
+      </c>
+      <c r="D353" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>13</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354" s="1">
+        <v>44509</v>
+      </c>
+      <c r="D354" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>13</v>
+      </c>
+      <c r="B355">
+        <v>8</v>
+      </c>
+      <c r="C355" s="1">
+        <v>44510</v>
+      </c>
+      <c r="D355" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>13</v>
+      </c>
+      <c r="B356">
+        <v>8</v>
+      </c>
+      <c r="C356" s="1">
         <v>44514</v>
       </c>
-      <c r="D349" s="2">
-        <v>0</v>
+      <c r="D356" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>13</v>
+      </c>
+      <c r="B357">
+        <v>8</v>
+      </c>
+      <c r="C357" s="1">
+        <v>44517</v>
+      </c>
+      <c r="D357" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>13</v>
+      </c>
+      <c r="B358">
+        <v>8</v>
+      </c>
+      <c r="C358" s="1">
+        <v>44521</v>
+      </c>
+      <c r="D358" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
